--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E268DCE8-82CA-4342-ADA7-1C54E4F4A1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A0301-44E7-4011-AF8B-05BA3D3022C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="41" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -573,7 +573,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -603,6 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1628,133 +1629,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="23">
-        <item x="10"/>
-        <item x="5"/>
-        <item m="1" x="21"/>
-        <item x="16"/>
-        <item m="1" x="19"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item m="1" x="20"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item m="1" x="18"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i/>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -1966,6 +1841,132 @@
     <dataField name="Sum of JAN" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of FEB" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of MAR" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="23">
+        <item x="10"/>
+        <item x="5"/>
+        <item m="1" x="21"/>
+        <item x="16"/>
+        <item m="1" x="19"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item m="1" x="20"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item m="1" x="18"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i/>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2472,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AG92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AF11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2485,12 +2486,12 @@
     <col min="3" max="3" width="19.1796875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <f>BAU!C92</f>
         <v>2745.8606136031594</v>
@@ -2718,31 +2719,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10">
         <v>2020</v>
@@ -2838,7 +2839,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12">
         <f>(B3+$A$7)*About!$B$34</f>
@@ -2965,7 +2966,7 @@
         <v>2217.7766787346754</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3063,113 +3064,107 @@
       <c r="AG13">
         <v>2050</v>
       </c>
-      <c r="AH13">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14"/>
-      <c r="C14">
-        <v>49996</v>
-      </c>
-      <c r="D14">
-        <v>48711.8</v>
-      </c>
-      <c r="E14">
-        <v>47597.7</v>
-      </c>
-      <c r="F14">
-        <v>46574.5</v>
-      </c>
-      <c r="G14">
-        <v>45651.8</v>
-      </c>
-      <c r="H14">
-        <v>44834.400000000001</v>
-      </c>
-      <c r="I14">
-        <v>44101.5</v>
-      </c>
-      <c r="J14">
-        <v>43427.7</v>
-      </c>
-      <c r="K14">
-        <v>42817.1</v>
-      </c>
-      <c r="L14">
-        <v>42254.3</v>
-      </c>
-      <c r="M14">
-        <v>41739.699999999997</v>
-      </c>
-      <c r="N14">
-        <v>41286.5</v>
-      </c>
-      <c r="O14">
-        <v>40889.599999999999</v>
-      </c>
-      <c r="P14">
-        <v>40537</v>
-      </c>
-      <c r="Q14">
-        <v>40226.199999999997</v>
-      </c>
-      <c r="R14">
-        <v>39954.300000000003</v>
-      </c>
-      <c r="S14">
-        <v>39717</v>
-      </c>
-      <c r="T14">
-        <v>39506.800000000003</v>
-      </c>
-      <c r="U14">
-        <v>39319.199999999997</v>
-      </c>
-      <c r="V14">
-        <v>39152.199999999997</v>
-      </c>
-      <c r="W14">
-        <v>39003.9</v>
-      </c>
-      <c r="X14">
-        <v>38872</v>
-      </c>
-      <c r="Y14">
-        <v>38753.5</v>
-      </c>
-      <c r="Z14">
-        <v>38646.6</v>
-      </c>
-      <c r="AA14">
-        <v>38549.699999999997</v>
-      </c>
-      <c r="AB14">
-        <v>38461.4</v>
-      </c>
-      <c r="AC14">
-        <v>38380.6</v>
-      </c>
-      <c r="AD14">
-        <v>38306.300000000003</v>
-      </c>
-      <c r="AE14">
-        <v>38237.699999999997</v>
-      </c>
-      <c r="AF14">
-        <v>38174.199999999997</v>
-      </c>
-      <c r="AG14">
-        <v>38115.1</v>
-      </c>
-      <c r="AH14">
-        <v>40174.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C14" s="19">
+        <v>51941</v>
+      </c>
+      <c r="D14" s="19">
+        <v>50597.9</v>
+      </c>
+      <c r="E14" s="19">
+        <v>49434.9</v>
+      </c>
+      <c r="F14" s="19">
+        <v>48369.8</v>
+      </c>
+      <c r="G14" s="19">
+        <v>47411</v>
+      </c>
+      <c r="H14" s="19">
+        <v>46562.1</v>
+      </c>
+      <c r="I14" s="19">
+        <v>45801.4</v>
+      </c>
+      <c r="J14" s="19">
+        <v>45102.3</v>
+      </c>
+      <c r="K14" s="19">
+        <v>44468.800000000003</v>
+      </c>
+      <c r="L14" s="19">
+        <v>43885.1</v>
+      </c>
+      <c r="M14" s="19">
+        <v>43351.5</v>
+      </c>
+      <c r="N14" s="19">
+        <v>42881.7</v>
+      </c>
+      <c r="O14" s="19">
+        <v>42470.3</v>
+      </c>
+      <c r="P14" s="19">
+        <v>42104.9</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>41783.1</v>
+      </c>
+      <c r="R14" s="19">
+        <v>41501.5</v>
+      </c>
+      <c r="S14" s="19">
+        <v>41255.800000000003</v>
+      </c>
+      <c r="T14" s="19">
+        <v>41038.1</v>
+      </c>
+      <c r="U14" s="19">
+        <v>40844</v>
+      </c>
+      <c r="V14" s="19">
+        <v>40671</v>
+      </c>
+      <c r="W14" s="19">
+        <v>40517.5</v>
+      </c>
+      <c r="X14" s="19">
+        <v>40380.9</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>40258.199999999997</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>40147.4</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>40047</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>39955.5</v>
+      </c>
+      <c r="AC14" s="19">
+        <v>39871.800000000003</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>39794.800000000003</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>39723.699999999997</v>
+      </c>
+      <c r="AF14" s="19">
+        <v>39657.800000000003</v>
+      </c>
+      <c r="AG14" s="19">
+        <v>39596.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3273,128 +3268,128 @@
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
-        <f t="shared" ref="A18:AF18" si="0">B11/C14</f>
-        <v>9.3080625079941276E-2</v>
+        <f t="shared" ref="B18:AF18" si="0">B11/C14</f>
+        <v>8.9595096965725415E-2</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>9.5534530267753312E-2</v>
+        <v>9.1973361176980586E-2</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>8.224893325394933E-2</v>
+        <v>7.9192231608468985E-2</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>7.6796345842659999E-2</v>
+        <v>7.3945962345285027E-2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>7.0566381391198543E-2</v>
+        <v>6.7947993714427404E-2</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>6.793038014345798E-2</v>
+        <v>6.5409804014506495E-2</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>6.9059279967888895E-2</v>
+        <v>6.6496173381247123E-2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>6.6266312664335247E-2</v>
+        <v>6.3805915585079948E-2</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>6.7211313855748106E-2</v>
+        <v>6.4714891035803787E-2</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>6.5543406911182114E-2</v>
+        <v>6.310776957662538E-2</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>5.8239568695682205E-2</v>
+        <v>5.607423331343013E-2</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>5.4112048631594703E-2</v>
+        <v>5.2099079463461914E-2</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>5.463729397764553E-2</v>
+        <v>5.2603751229172727E-2</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>5.5112541525725499E-2</v>
+        <v>5.3060263670697105E-2</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="0"/>
-        <v>5.5538357981323984E-2</v>
+        <v>5.3468916758888992E-2</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="0"/>
-        <v>5.5916311781919206E-2</v>
+        <v>5.3831719234927286E-2</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="0"/>
-        <v>5.6250398968409866E-2</v>
+        <v>5.4152315452089997E-2</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="0"/>
-        <v>5.6549685011905153E-2</v>
+        <v>5.4439584089622441E-2</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" si="0"/>
-        <v>5.6404420200173847E-2</v>
+        <v>5.4298714100839182E-2</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="0"/>
-        <v>5.6645007911041413E-2</v>
+        <v>5.4529681560194623E-2</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="0"/>
-        <v>5.686038264723977E-2</v>
+        <v>5.4736266520261007E-2</v>
       </c>
       <c r="W18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7053320609556375E-2</v>
+        <v>5.4921427673347435E-2</v>
       </c>
       <c r="X18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7227777587435337E-2</v>
+        <v>5.5088818644019745E-2</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7386074809547945E-2</v>
+        <v>5.5240854419829809E-2</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7530322641542619E-2</v>
+        <v>5.5379346236538951E-2</v>
       </c>
       <c r="AA18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7662401231745992E-2</v>
+        <v>5.5506167579799412E-2</v>
       </c>
       <c r="AB18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7783793862906663E-2</v>
+        <v>5.5622687682388941E-2</v>
       </c>
       <c r="AC18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7895872969581381E-2</v>
+        <v>5.5730313476501335E-2</v>
       </c>
       <c r="AD18" s="4">
         <f t="shared" si="0"/>
-        <v>5.7999740537079257E-2</v>
+        <v>5.5830063129433449E-2</v>
       </c>
       <c r="AE18" s="4">
         <f t="shared" si="0"/>
-        <v>5.8096218879103573E-2</v>
+        <v>5.5922836837511793E-2</v>
       </c>
       <c r="AF18" s="4">
         <f t="shared" si="0"/>
-        <v>5.8186300934135696E-2</v>
+        <v>5.600941191101929E-2</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
@@ -3409,6 +3404,501 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="4"/>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+    </row>
+    <row r="64" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+    </row>
+    <row r="86" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+    </row>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13260,7 +13750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B1" t="s">
@@ -13274,7 +13764,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
+      <c r="A2" s="21"/>
       <c r="B2" t="s">
         <v>134</v>
       </c>
@@ -13286,7 +13776,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="C3">
         <v>200000</v>
       </c>
@@ -13295,7 +13785,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="D4">
         <v>200000</v>
       </c>
@@ -13694,127 +14184,127 @@
       </c>
       <c r="F2" s="18">
         <f>Data!B18</f>
-        <v>9.3080625079941276E-2</v>
+        <v>8.9595096965725415E-2</v>
       </c>
       <c r="G2" s="18">
         <f>Data!C18</f>
-        <v>9.5534530267753312E-2</v>
+        <v>9.1973361176980586E-2</v>
       </c>
       <c r="H2" s="18">
         <f>Data!D18</f>
-        <v>8.224893325394933E-2</v>
+        <v>7.9192231608468985E-2</v>
       </c>
       <c r="I2" s="18">
         <f>Data!E18</f>
-        <v>7.6796345842659999E-2</v>
+        <v>7.3945962345285027E-2</v>
       </c>
       <c r="J2" s="18">
         <f>Data!F18</f>
-        <v>7.0566381391198543E-2</v>
+        <v>6.7947993714427404E-2</v>
       </c>
       <c r="K2" s="18">
         <f>Data!G18</f>
-        <v>6.793038014345798E-2</v>
+        <v>6.5409804014506495E-2</v>
       </c>
       <c r="L2" s="18">
         <f>Data!H18</f>
-        <v>6.9059279967888895E-2</v>
+        <v>6.6496173381247123E-2</v>
       </c>
       <c r="M2" s="18">
         <f>Data!I18</f>
-        <v>6.6266312664335247E-2</v>
+        <v>6.3805915585079948E-2</v>
       </c>
       <c r="N2" s="18">
         <f>Data!J18</f>
-        <v>6.7211313855748106E-2</v>
+        <v>6.4714891035803787E-2</v>
       </c>
       <c r="O2" s="18">
         <f>Data!K18</f>
-        <v>6.5543406911182114E-2</v>
+        <v>6.310776957662538E-2</v>
       </c>
       <c r="P2" s="18">
         <f>Data!L18</f>
-        <v>5.8239568695682205E-2</v>
+        <v>5.607423331343013E-2</v>
       </c>
       <c r="Q2" s="18">
         <f>Data!M18</f>
-        <v>5.4112048631594703E-2</v>
+        <v>5.2099079463461914E-2</v>
       </c>
       <c r="R2" s="18">
         <f>Data!N18</f>
-        <v>5.463729397764553E-2</v>
+        <v>5.2603751229172727E-2</v>
       </c>
       <c r="S2" s="18">
         <f>Data!O18</f>
-        <v>5.5112541525725499E-2</v>
+        <v>5.3060263670697105E-2</v>
       </c>
       <c r="T2" s="18">
         <f>Data!P18</f>
-        <v>5.5538357981323984E-2</v>
+        <v>5.3468916758888992E-2</v>
       </c>
       <c r="U2" s="18">
         <f>Data!Q18</f>
-        <v>5.5916311781919206E-2</v>
+        <v>5.3831719234927286E-2</v>
       </c>
       <c r="V2" s="18">
         <f>Data!R18</f>
-        <v>5.6250398968409866E-2</v>
+        <v>5.4152315452089997E-2</v>
       </c>
       <c r="W2" s="18">
         <f>Data!S18</f>
-        <v>5.6549685011905153E-2</v>
+        <v>5.4439584089622441E-2</v>
       </c>
       <c r="X2" s="18">
         <f>Data!T18</f>
-        <v>5.6404420200173847E-2</v>
+        <v>5.4298714100839182E-2</v>
       </c>
       <c r="Y2" s="18">
         <f>Data!U18</f>
-        <v>5.6645007911041413E-2</v>
+        <v>5.4529681560194623E-2</v>
       </c>
       <c r="Z2" s="18">
         <f>Data!V18</f>
-        <v>5.686038264723977E-2</v>
+        <v>5.4736266520261007E-2</v>
       </c>
       <c r="AA2" s="18">
         <f>Data!W18</f>
-        <v>5.7053320609556375E-2</v>
+        <v>5.4921427673347435E-2</v>
       </c>
       <c r="AB2" s="18">
         <f>Data!X18</f>
-        <v>5.7227777587435337E-2</v>
+        <v>5.5088818644019745E-2</v>
       </c>
       <c r="AC2" s="18">
         <f>Data!Y18</f>
-        <v>5.7386074809547945E-2</v>
+        <v>5.5240854419829809E-2</v>
       </c>
       <c r="AD2" s="18">
         <f>Data!Z18</f>
-        <v>5.7530322641542619E-2</v>
+        <v>5.5379346236538951E-2</v>
       </c>
       <c r="AE2" s="18">
         <f>Data!AA18</f>
-        <v>5.7662401231745992E-2</v>
+        <v>5.5506167579799412E-2</v>
       </c>
       <c r="AF2" s="18">
         <f>Data!AB18</f>
-        <v>5.7783793862906663E-2</v>
+        <v>5.5622687682388941E-2</v>
       </c>
       <c r="AG2" s="18">
         <f>Data!AC18</f>
-        <v>5.7895872969581381E-2</v>
+        <v>5.5730313476501335E-2</v>
       </c>
       <c r="AH2" s="18">
         <f>Data!AD18</f>
-        <v>5.7999740537079257E-2</v>
+        <v>5.5830063129433449E-2</v>
       </c>
       <c r="AI2" s="18">
         <f>Data!AE18</f>
-        <v>5.8096218879103573E-2</v>
+        <v>5.5922836837511793E-2</v>
       </c>
       <c r="AJ2" s="18">
         <f>Data!AF18</f>
-        <v>5.8186300934135696E-2</v>
+        <v>5.600941191101929E-2</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\trans\BESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Oregon\Oregon_EPS\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A0301-44E7-4011-AF8B-05BA3D3022C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B18E2C-6793-428A-8870-4BA24023BD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8190" yWindow="675" windowWidth="19290" windowHeight="16095" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <sheet name="BESP-passengers" sheetId="6" r:id="rId6"/>
     <sheet name="BESP-freight" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -573,7 +576,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -603,6 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
@@ -637,6 +641,136 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Data"/>
+      <sheetName val="BAU"/>
+      <sheetName val="2019 Sales"/>
+      <sheetName val="Cumulative Sales"/>
+      <sheetName val="BESP-passengers"/>
+      <sheetName val="BESP-freight"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="40">
+          <cell r="B40">
+            <v>0.88711067149387013</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="92">
+          <cell r="C92">
+            <v>2745.8606136031603</v>
+          </cell>
+          <cell r="D92">
+            <v>2745.8606136031603</v>
+          </cell>
+          <cell r="E92">
+            <v>2745.8606136031599</v>
+          </cell>
+          <cell r="F92">
+            <v>1913.0458308533071</v>
+          </cell>
+          <cell r="G92">
+            <v>1531.911151993939</v>
+          </cell>
+          <cell r="H92">
+            <v>933.18813916995873</v>
+          </cell>
+          <cell r="I92">
+            <v>933.18813916995794</v>
+          </cell>
+          <cell r="J92">
+            <v>744.00735890915064</v>
+          </cell>
+          <cell r="K92">
+            <v>744.00735890915098</v>
+          </cell>
+          <cell r="L92">
+            <v>414.07391374925612</v>
+          </cell>
+          <cell r="M92">
+            <v>154.75353065310316</v>
+          </cell>
+          <cell r="N92">
+            <v>18.397272874844436</v>
+          </cell>
+          <cell r="O92">
+            <v>18.397272874844436</v>
+          </cell>
+          <cell r="P92">
+            <v>18.397272874844433</v>
+          </cell>
+          <cell r="Q92">
+            <v>18.397272874844436</v>
+          </cell>
+          <cell r="R92">
+            <v>18.397272874844436</v>
+          </cell>
+          <cell r="S92">
+            <v>0</v>
+          </cell>
+          <cell r="T92">
+            <v>0</v>
+          </cell>
+          <cell r="U92">
+            <v>0</v>
+          </cell>
+          <cell r="V92">
+            <v>0</v>
+          </cell>
+          <cell r="W92">
+            <v>0</v>
+          </cell>
+          <cell r="X92">
+            <v>0</v>
+          </cell>
+          <cell r="Y92">
+            <v>0</v>
+          </cell>
+          <cell r="Z92">
+            <v>0</v>
+          </cell>
+          <cell r="AA92">
+            <v>0</v>
+          </cell>
+          <cell r="AB92">
+            <v>0</v>
+          </cell>
+          <cell r="AC92">
+            <v>0</v>
+          </cell>
+          <cell r="AD92">
+            <v>0</v>
+          </cell>
+          <cell r="AE92">
+            <v>0</v>
+          </cell>
+          <cell r="AF92">
+            <v>0</v>
+          </cell>
+          <cell r="AG92">
+            <v>0</v>
+          </cell>
+          <cell r="AH92">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1629,7 +1763,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -1852,7 +1986,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -2300,17 +2434,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2455,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2329,130 +2463,130 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>148</v>
       </c>
@@ -2476,274 +2610,274 @@
   <dimension ref="A1:AG92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
         <v>2019</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="21">
         <v>2020</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="21">
         <v>2021</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="21">
         <v>2022</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="21">
         <v>2023</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="21">
         <v>2024</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="21">
         <v>2025</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="21">
         <v>2026</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="21">
         <v>2027</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="21">
         <v>2028</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="21">
         <v>2029</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="21">
         <v>2030</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="21">
         <v>2031</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="21">
         <v>2032</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="21">
         <v>2033</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="21">
         <v>2034</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="21">
         <v>2035</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="21">
         <v>2036</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="21">
         <v>2037</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="21">
         <v>2038</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="21">
         <v>2039</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="21">
         <v>2040</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="21">
         <v>2041</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="21">
         <v>2042</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="21">
         <v>2043</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="21">
         <v>2044</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="21">
         <v>2045</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="21">
         <v>2046</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="21">
         <v>2047</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="21">
         <v>2048</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="21">
         <v>2049</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="21">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <f>BAU!C92</f>
-        <v>2745.8606136031594</v>
+        <f>[1]BAU!C92*[1]About!$B$40</f>
+        <v>2435.88225276207</v>
       </c>
       <c r="B3" s="12">
-        <f>BAU!D92</f>
-        <v>2745.8606136031599</v>
+        <f>[1]BAU!D92*[1]About!$B$40</f>
+        <v>2435.88225276207</v>
       </c>
       <c r="C3" s="12">
-        <f>BAU!E92</f>
-        <v>2745.8606136031608</v>
+        <f>[1]BAU!E92*[1]About!$B$40</f>
+        <v>2435.8822527620696</v>
       </c>
       <c r="D3" s="12">
-        <f>BAU!F92</f>
-        <v>1913.0458308533098</v>
+        <f>[1]BAU!F92*[1]About!$B$40</f>
+        <v>1697.0833716068259</v>
       </c>
       <c r="E3" s="12">
-        <f>BAU!G92</f>
-        <v>1531.9111519939402</v>
+        <f>[1]BAU!G92*[1]About!$B$40</f>
+        <v>1358.9747307142914</v>
       </c>
       <c r="F3" s="12">
-        <f>BAU!H92</f>
-        <v>1131.4322818029341</v>
+        <f>[1]BAU!H92*[1]About!$B$40</f>
+        <v>827.84115676917725</v>
       </c>
       <c r="G3" s="12">
-        <f>BAU!I92</f>
-        <v>933.18813916995919</v>
+        <f>[1]BAU!I92*[1]About!$B$40</f>
+        <v>827.84115676917656</v>
       </c>
       <c r="H3" s="12">
-        <f>BAU!J92</f>
-        <v>933.18813916995839</v>
+        <f>[1]BAU!J92*[1]About!$B$40</f>
+        <v>660.0168677582775</v>
       </c>
       <c r="I3" s="12">
-        <f>BAU!K92</f>
-        <v>744.00735890914939</v>
+        <f>[1]BAU!K92*[1]About!$B$40</f>
+        <v>660.01686775827773</v>
       </c>
       <c r="J3" s="12">
-        <f>BAU!L92</f>
-        <v>744.00735890914984</v>
+        <f>[1]BAU!L92*[1]About!$B$40</f>
+        <v>367.32938767419745</v>
       </c>
       <c r="K3" s="12">
-        <f>BAU!M92</f>
-        <v>621.92251501542148</v>
+        <f>[1]BAU!M92*[1]About!$B$40</f>
+        <v>137.28350849372154</v>
       </c>
       <c r="L3" s="12">
-        <f>BAU!N92</f>
-        <v>240.24673989502756</v>
+        <f>[1]BAU!N92*[1]About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="M3" s="12">
-        <f>BAU!O92</f>
-        <v>18.397272874844436</v>
+        <f>[1]BAU!O92*[1]About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="N3" s="12">
-        <f>BAU!P92</f>
-        <v>18.397272874844436</v>
+        <f>[1]BAU!P92*[1]About!$B$40</f>
+        <v>16.320417093659206</v>
       </c>
       <c r="O3" s="12">
-        <f>BAU!Q92</f>
-        <v>18.397272874844436</v>
+        <f>[1]BAU!Q92*[1]About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="P3" s="12">
-        <f>BAU!R92</f>
-        <v>18.397272874844436</v>
+        <f>[1]BAU!R92*[1]About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="Q3" s="12">
-        <f>BAU!S92</f>
-        <v>18.397272874844436</v>
+        <f>[1]BAU!S92*[1]About!$B$40</f>
+        <v>0</v>
       </c>
       <c r="R3" s="12">
-        <f>BAU!T92</f>
-        <v>18.39727287484444</v>
+        <f>[1]BAU!T92*[1]About!$B$40</f>
+        <v>0</v>
       </c>
       <c r="S3" s="12">
-        <f>BAU!U92</f>
-        <v>18.39727287484444</v>
+        <f>[1]BAU!U92*[1]About!$B$40</f>
+        <v>0</v>
       </c>
       <c r="T3" s="12">
-        <f>BAU!V92</f>
+        <f>[1]BAU!V92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="U3" s="12">
-        <f>BAU!W92</f>
+        <f>[1]BAU!W92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="V3" s="12">
-        <f>BAU!X92</f>
+        <f>[1]BAU!X92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="W3" s="12">
-        <f>BAU!Y92</f>
+        <f>[1]BAU!Y92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="X3" s="12">
-        <f>BAU!Z92</f>
+        <f>[1]BAU!Z92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="Y3" s="12">
-        <f>BAU!AA92</f>
+        <f>[1]BAU!AA92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="Z3" s="12">
-        <f>BAU!AB92</f>
+        <f>[1]BAU!AB92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AA3" s="12">
-        <f>BAU!AC92</f>
+        <f>[1]BAU!AC92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AB3" s="12">
-        <f>BAU!AD92</f>
+        <f>[1]BAU!AD92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AC3" s="12">
-        <f>BAU!AE92</f>
+        <f>[1]BAU!AE92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AD3" s="12">
-        <f>BAU!AF92</f>
+        <f>[1]BAU!AF92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AE3" s="12">
-        <f>BAU!AG92</f>
+        <f>[1]BAU!AG92*[1]About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AF3" s="12">
-        <f>BAU!AH92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+        <f>[1]BAU!AH92*[1]About!$B$40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10">
         <v>2020</v>
@@ -2839,79 +2973,79 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12">
         <f>(B3+$A$7)*About!$B$34</f>
-        <v>4653.6589314967441</v>
+        <v>4378.6738196624365</v>
       </c>
       <c r="C11" s="12">
         <f>(C3+$A$7)*About!$B$34</f>
-        <v>4653.6589314967459</v>
+        <v>4378.6738196624356</v>
       </c>
       <c r="D11" s="12">
         <f>(D3+$A$7)*About!$B$34</f>
-        <v>3914.8600503415037</v>
+        <v>3723.2774481018882</v>
       </c>
       <c r="E11" s="12">
         <f>(E3+$A$7)*About!$B$34</f>
-        <v>3576.7514094489679</v>
+        <v>3423.3376646418319</v>
       </c>
       <c r="F11" s="12">
         <f>(F3+$A$7)*About!$B$34</f>
-        <v>3221.4823299947179</v>
+        <v>2952.1634032064426</v>
       </c>
       <c r="G11" s="12">
         <f>(G3+$A$7)*About!$B$34</f>
-        <v>3045.6178355038528</v>
+        <v>2952.1634032064417</v>
       </c>
       <c r="H11" s="12">
         <f>(H3+$A$7)*About!$B$34</f>
-        <v>3045.6178355038523</v>
+        <v>2803.2846854890017</v>
       </c>
       <c r="I11" s="12">
         <f>(I3+$A$7)*About!$B$34</f>
-        <v>2877.7935464929515</v>
+        <v>2803.2846854890022</v>
       </c>
       <c r="J11" s="12">
         <f>(J3+$A$7)*About!$B$34</f>
-        <v>2877.7935464929519</v>
+        <v>2543.6384984937645</v>
       </c>
       <c r="K11" s="12">
         <f>(K3+$A$7)*About!$B$34</f>
-        <v>2769.4907786471626</v>
+        <v>2339.5623441395751</v>
       </c>
       <c r="L11" s="12">
         <f>(L3+$A$7)*About!$B$34</f>
-        <v>2430.9021254871664</v>
+        <v>2232.2546949016914</v>
       </c>
       <c r="M11" s="12">
         <f>(M3+$A$7)*About!$B$34</f>
-        <v>2234.0970958283347</v>
+        <v>2232.2546949016914</v>
       </c>
       <c r="N11" s="12">
         <f>(N3+$A$7)*About!$B$34</f>
-        <v>2234.0970958283347</v>
+        <v>2232.2546949016914</v>
       </c>
       <c r="O11" s="12">
         <f>(O3+$A$7)*About!$B$34</f>
-        <v>2234.0970958283347</v>
+        <v>2232.2546949016914</v>
       </c>
       <c r="P11" s="12">
         <f>(P3+$A$7)*About!$B$34</f>
-        <v>2234.0970958283347</v>
+        <v>2232.2546949016914</v>
       </c>
       <c r="Q11" s="12">
         <f>(Q3+$A$7)*About!$B$34</f>
-        <v>2234.0970958283347</v>
+        <v>2217.7766787346754</v>
       </c>
       <c r="R11" s="12">
         <f>(R3+$A$7)*About!$B$34</f>
-        <v>2234.0970958283347</v>
+        <v>2217.7766787346754</v>
       </c>
       <c r="S11" s="12">
         <f>(S3+$A$7)*About!$B$34</f>
-        <v>2234.0970958283347</v>
+        <v>2217.7766787346754</v>
       </c>
       <c r="T11" s="12">
         <f>(T3+$A$7)*About!$B$34</f>
@@ -2966,7 +3100,7 @@
         <v>2217.7766787346754</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3065,7 +3199,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3164,12 +3298,12 @@
         <v>39596.5</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17">
         <v>2020</v>
@@ -3265,79 +3399,79 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <f t="shared" ref="B18:AF18" si="0">B11/C14</f>
-        <v>8.9595096965725415E-2</v>
+        <v>8.4300914877696545E-2</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>9.1973361176980586E-2</v>
+        <v>8.6538647249439909E-2</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>7.9192231608468985E-2</v>
+        <v>7.5316779200562525E-2</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>7.3945962345285027E-2</v>
+        <v>7.0774277847785838E-2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>6.7947993714427404E-2</v>
+        <v>6.2267478079062716E-2</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>6.5409804014506495E-2</v>
+        <v>6.3402711716319532E-2</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>6.6496173381247123E-2</v>
+        <v>6.1205218300947169E-2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>6.3805915585079948E-2</v>
+        <v>6.2153918658006402E-2</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>6.4714891035803787E-2</v>
+        <v>5.7200520330968327E-2</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>6.310776957662538E-2</v>
+        <v>5.3311086089346385E-2</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>5.607423331343013E-2</v>
+        <v>5.1491982858763628E-2</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>5.2099079463461914E-2</v>
+        <v>5.2056114727300727E-2</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>5.2603751229172727E-2</v>
+        <v>5.2560370303522494E-2</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>5.3060263670697105E-2</v>
+        <v>5.3016506271281759E-2</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="0"/>
-        <v>5.3468916758888992E-2</v>
+        <v>5.3424822354054428E-2</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="0"/>
-        <v>5.3831719234927286E-2</v>
+        <v>5.3438470386243282E-2</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="0"/>
-        <v>5.4152315452089997E-2</v>
+        <v>5.3756724599563585E-2</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="0"/>
-        <v>5.4439584089622441E-2</v>
+        <v>5.4041894696262145E-2</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" si="0"/>
@@ -3392,7 +3526,7 @@
         <v>5.600941191101929E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -3405,7 +3539,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3438,7 +3572,7 @@
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3471,7 +3605,7 @@
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3504,7 +3638,7 @@
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3537,7 +3671,7 @@
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -3570,7 +3704,7 @@
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -3603,7 +3737,7 @@
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3636,7 +3770,7 @@
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -3669,7 +3803,7 @@
       <c r="AE68" s="7"/>
       <c r="AF68" s="7"/>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -3702,7 +3836,7 @@
       <c r="AE71" s="7"/>
       <c r="AF71" s="7"/>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -3735,7 +3869,7 @@
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -3768,7 +3902,7 @@
       <c r="AE75" s="7"/>
       <c r="AF75" s="7"/>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3801,7 +3935,7 @@
       <c r="AE78" s="7"/>
       <c r="AF78" s="7"/>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3834,7 +3968,7 @@
       <c r="AE86" s="7"/>
       <c r="AF86" s="7"/>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3867,7 +4001,7 @@
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3913,26 +4047,26 @@
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="11" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -4036,7 +4170,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4177,7 +4311,7 @@
         <v>10491284.759464676</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4318,7 +4452,7 @@
         <v>2742926.6364013497</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4459,7 +4593,7 @@
         <v>10044622.790505564</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4600,7 +4734,7 @@
         <v>520525.68376530858</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4741,7 +4875,7 @@
         <v>5294154.9930739673</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4882,7 +5016,7 @@
         <v>21619399.202694669</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -5023,7 +5157,7 @@
         <v>1758815.7387046153</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5164,7 +5298,7 @@
         <v>3203277.9124866971</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5305,7 +5439,7 @@
         <v>4962634.4062189991</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5446,7 +5580,7 @@
         <v>1820215.3292029649</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5587,7 +5721,7 @@
         <v>8707283.6971664578</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5728,7 +5862,7 @@
         <v>2272815.2177190995</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5869,7 +6003,7 @@
         <v>103198947.36781919</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6010,7 +6144,7 @@
         <v>13285904.130782969</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6151,7 +6285,7 @@
         <v>2712962.9636383303</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6292,7 +6426,7 @@
         <v>2289597.9928575293</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -6433,7 +6567,7 @@
         <v>2235598.1774976058</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -6456,7 +6590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -6480,7 +6614,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -6504,7 +6638,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -6528,7 +6662,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -6552,7 +6686,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -6576,7 +6710,7 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -6600,7 +6734,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -6624,7 +6758,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -6648,7 +6782,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -6672,7 +6806,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -6696,7 +6830,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -6720,7 +6854,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -6744,7 +6878,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -6768,7 +6902,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -6789,7 +6923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -6813,7 +6947,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -6837,7 +6971,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -6861,7 +6995,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -6885,7 +7019,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -6893,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -6921,12 +7055,12 @@
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -7030,7 +7164,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -7134,7 +7268,7 @@
         <v>1226380</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -7238,12 +7372,12 @@
         <v>10120000</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -7380,7 +7514,7 @@
         <v>605864.72575437836</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -7517,7 +7651,7 @@
         <v>158194.03242970264</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -7654,7 +7788,7 @@
         <v>576599.85300218232</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -7791,7 +7925,7 @@
         <v>27832.326533556992</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -7928,7 +8062,7 @@
         <v>299913.78334505705</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -8065,7 +8199,7 @@
         <v>1239561.7780423143</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -8202,7 +8336,7 @@
         <v>101301.4826037552</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -8339,7 +8473,7 @@
         <v>184696.13747452336</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -8476,7 +8610,7 @@
         <v>286202.26953808416</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -8613,7 +8747,7 @@
         <v>104985.17288025538</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -8750,7 +8884,7 @@
         <v>496479.58948830335</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -8887,7 +9021,7 @@
         <v>130975.65427556235</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -9024,7 +9158,7 @@
         <v>5952741.1620944031</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -9161,7 +9295,7 @@
         <v>763444.80980466434</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -9298,7 +9432,7 @@
         <v>156249.86256154964</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -9435,7 +9569,7 @@
         <v>131998.90157459013</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -9572,12 +9706,12 @@
         <v>129338.45859711803</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -9585,7 +9719,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -9593,7 +9727,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -9694,7 +9828,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -9827,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -9960,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -10093,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -10226,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -10359,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -10492,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -10625,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -10758,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -10891,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -11024,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -11157,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -11290,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -11423,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -11556,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -11689,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -11822,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -11955,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -11963,7 +12097,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C92" s="16">
         <f t="shared" ref="C92:AH92" si="43">SUMPRODUCT(C73:C89,C50:C66)/SUM(C50:C66)</f>
         <v>2745.8606136031594</v>
@@ -12112,12 +12246,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -12167,7 +12301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -12199,7 +12333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -12231,7 +12365,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -12263,7 +12397,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -12295,7 +12429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12327,7 +12461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -12359,7 +12493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -12391,7 +12525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -12423,7 +12557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -12455,7 +12589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -12487,7 +12621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -12519,7 +12653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -12551,7 +12685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -12583,7 +12717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -12615,7 +12749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -12647,7 +12781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -12670,7 +12804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -12702,7 +12836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -12734,7 +12868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -12766,7 +12900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -12798,7 +12932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -12830,7 +12964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -12862,7 +12996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -12894,7 +13028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -12926,7 +13060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -12958,7 +13092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -12990,7 +13124,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -13022,7 +13156,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -13054,7 +13188,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -13086,7 +13220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -13118,7 +13252,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -13150,7 +13284,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -13182,7 +13316,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -13214,7 +13348,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -13246,7 +13380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -13275,7 +13409,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -13307,7 +13441,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -13339,7 +13473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -13362,7 +13496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -13394,7 +13528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -13426,7 +13560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -13458,7 +13592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -13490,7 +13624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -13522,7 +13656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -13554,7 +13688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -13586,7 +13720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>126</v>
       </c>
@@ -13612,7 +13746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>127</v>
       </c>
@@ -13659,7 +13793,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>128</v>
       </c>
@@ -13682,7 +13816,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>129</v>
       </c>
@@ -13743,14 +13877,14 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B1" t="s">
@@ -13763,8 +13897,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
       <c r="B2" t="s">
         <v>134</v>
       </c>
@@ -13775,8 +13909,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
       <c r="C3">
         <v>200000</v>
       </c>
@@ -13784,13 +13918,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
       <c r="D4">
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -13804,7 +13938,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -13818,7 +13952,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -13832,7 +13966,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -13846,7 +13980,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -13860,7 +13994,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -13874,7 +14008,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -13888,7 +14022,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -13902,7 +14036,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -13916,7 +14050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -13930,7 +14064,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -13944,7 +14078,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -13958,7 +14092,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -13972,7 +14106,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -13986,7 +14120,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -14000,7 +14134,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -14014,7 +14148,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -14043,16 +14177,16 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>140</v>
       </c>
@@ -14162,7 +14296,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -14184,75 +14318,75 @@
       </c>
       <c r="F2" s="18">
         <f>Data!B18</f>
-        <v>8.9595096965725415E-2</v>
+        <v>8.4300914877696545E-2</v>
       </c>
       <c r="G2" s="18">
         <f>Data!C18</f>
-        <v>9.1973361176980586E-2</v>
+        <v>8.6538647249439909E-2</v>
       </c>
       <c r="H2" s="18">
         <f>Data!D18</f>
-        <v>7.9192231608468985E-2</v>
+        <v>7.5316779200562525E-2</v>
       </c>
       <c r="I2" s="18">
         <f>Data!E18</f>
-        <v>7.3945962345285027E-2</v>
+        <v>7.0774277847785838E-2</v>
       </c>
       <c r="J2" s="18">
         <f>Data!F18</f>
-        <v>6.7947993714427404E-2</v>
+        <v>6.2267478079062716E-2</v>
       </c>
       <c r="K2" s="18">
         <f>Data!G18</f>
-        <v>6.5409804014506495E-2</v>
+        <v>6.3402711716319532E-2</v>
       </c>
       <c r="L2" s="18">
         <f>Data!H18</f>
-        <v>6.6496173381247123E-2</v>
+        <v>6.1205218300947169E-2</v>
       </c>
       <c r="M2" s="18">
         <f>Data!I18</f>
-        <v>6.3805915585079948E-2</v>
+        <v>6.2153918658006402E-2</v>
       </c>
       <c r="N2" s="18">
         <f>Data!J18</f>
-        <v>6.4714891035803787E-2</v>
+        <v>5.7200520330968327E-2</v>
       </c>
       <c r="O2" s="18">
         <f>Data!K18</f>
-        <v>6.310776957662538E-2</v>
+        <v>5.3311086089346385E-2</v>
       </c>
       <c r="P2" s="18">
         <f>Data!L18</f>
-        <v>5.607423331343013E-2</v>
+        <v>5.1491982858763628E-2</v>
       </c>
       <c r="Q2" s="18">
         <f>Data!M18</f>
-        <v>5.2099079463461914E-2</v>
+        <v>5.2056114727300727E-2</v>
       </c>
       <c r="R2" s="18">
         <f>Data!N18</f>
-        <v>5.2603751229172727E-2</v>
+        <v>5.2560370303522494E-2</v>
       </c>
       <c r="S2" s="18">
         <f>Data!O18</f>
-        <v>5.3060263670697105E-2</v>
+        <v>5.3016506271281759E-2</v>
       </c>
       <c r="T2" s="18">
         <f>Data!P18</f>
-        <v>5.3468916758888992E-2</v>
+        <v>5.3424822354054428E-2</v>
       </c>
       <c r="U2" s="18">
         <f>Data!Q18</f>
-        <v>5.3831719234927286E-2</v>
+        <v>5.3438470386243282E-2</v>
       </c>
       <c r="V2" s="18">
         <f>Data!R18</f>
-        <v>5.4152315452089997E-2</v>
+        <v>5.3756724599563585E-2</v>
       </c>
       <c r="W2" s="18">
         <f>Data!S18</f>
-        <v>5.4439584089622441E-2</v>
+        <v>5.4041894696262145E-2</v>
       </c>
       <c r="X2" s="18">
         <f>Data!T18</f>
@@ -14307,7 +14441,7 @@
         <v>5.600941191101929E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -14417,7 +14551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -14527,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -14637,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -14747,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -14871,12 +15005,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>140</v>
       </c>
@@ -14986,7 +15120,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -15096,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -15206,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -15316,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -15426,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -15536,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OR/trans/BESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A54701C-F23E-4A40-8CDD-2399477AFFEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB302AC0-7624-2845-AE5C-D19F2B96A15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="460" windowWidth="14060" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="500" windowWidth="14060" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="95" r:id="rId8"/>
+    <pivotCache cacheId="103" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="284">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -883,6 +883,15 @@
   </si>
   <si>
     <t>State Rebates + Tax Credits Updated 8/11/2021</t>
+  </si>
+  <si>
+    <t>Note: this does not include the IRA subsidies</t>
+  </si>
+  <si>
+    <t>The file expressely excludes the IRA related subsidies - more modeling is required to understand</t>
+  </si>
+  <si>
+    <t>which models will apply under the requirements.</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1223,6 +1232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
   </cellXfs>
@@ -1272,7 +1284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44420.463605671299" refreshedVersion="7" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44819.670905439816" refreshedVersion="8" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:P47" sheet="2019 Sales"/>
   </cacheSource>
@@ -2169,7 +2181,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="95" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G22:J41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -2299,7 +2311,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="95" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -2618,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2637,7 +2649,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="50">
-        <v>44420</v>
+        <v>44819</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -3060,6 +3072,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>282</v>
+      </c>
       <c r="B40" s="4"/>
       <c r="F40" s="5" t="s">
         <v>104</v>
@@ -3069,6 +3084,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>283</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>106</v>
@@ -6029,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6162,95 +6180,72 @@
         <v>1913.0458308533109</v>
       </c>
       <c r="E3" s="11">
-        <f>BAU!G92</f>
-        <v>1531.9111519939402</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f>BAU!H92</f>
-        <v>1131.4322818029341</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11">
-        <f>BAU!I92</f>
-        <v>933.18813916995919</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
-        <f>BAU!J92</f>
-        <v>933.18813916995953</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
-        <f>BAU!K92</f>
-        <v>744.00735890914916</v>
+        <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f>BAU!L92</f>
-        <v>744.00735890914984</v>
+        <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>BAU!M92</f>
-        <v>621.92251501542137</v>
+        <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>BAU!N92</f>
-        <v>240.24673989502756</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>BAU!O92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="N3" s="11">
-        <f>BAU!P92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="O3" s="11">
-        <f>BAU!Q92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="P3" s="11">
-        <f>BAU!R92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="11">
-        <f>BAU!S92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="R3" s="11">
-        <f>BAU!T92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="S3" s="11">
-        <f>BAU!U92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="T3" s="11">
-        <f>BAU!V92</f>
         <v>0</v>
       </c>
       <c r="U3" s="11">
-        <f>BAU!W92</f>
         <v>0</v>
       </c>
       <c r="V3" s="11">
-        <f>BAU!X92</f>
         <v>0</v>
       </c>
       <c r="W3" s="11">
-        <f>BAU!Y92</f>
         <v>0</v>
       </c>
       <c r="X3" s="11">
-        <f>BAU!Z92</f>
         <v>0</v>
       </c>
       <c r="Y3" s="11">
-        <f>BAU!AA92</f>
         <v>0</v>
       </c>
       <c r="Z3" s="11">
-        <f>BAU!AB92</f>
         <v>0</v>
       </c>
       <c r="AA3" s="11">
-        <f>BAU!AC92</f>
         <v>0</v>
       </c>
       <c r="AB3" s="11">
@@ -6276,6 +6271,9 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
+      <c r="E4" s="51" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
@@ -6990,63 +6988,63 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="2"/>
-        <v>8.4949942311859553E-2</v>
+        <v>5.2673495960996332E-2</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" si="2"/>
-        <v>7.7815516718443237E-2</v>
+        <v>5.3570816333527622E-2</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="2"/>
-        <v>7.4695255254706203E-2</v>
+        <v>5.4392049187817926E-2</v>
       </c>
       <c r="H33" s="12">
         <f t="shared" si="2"/>
-        <v>7.5736156554799469E-2</v>
+        <v>5.5150019081906601E-2</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="2"/>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f t="shared" si="2"/>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="12">
         <f t="shared" si="2"/>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="O33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="P33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="R33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="S33" s="12">
         <f t="shared" si="2"/>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="T33" s="12">
         <f t="shared" si="2"/>
@@ -20411,7 +20409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -20425,7 +20423,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="8" t="s">
         <v>266</v>
       </c>
@@ -20437,7 +20435,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8">
         <v>200000</v>
       </c>
@@ -20446,7 +20444,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="D4" s="8">
         <v>200000</v>
       </c>
@@ -21838,63 +21836,63 @@
       </c>
       <c r="I2" s="40">
         <f>Data!E33</f>
-        <v>8.4949942311859553E-2</v>
+        <v>5.2673495960996332E-2</v>
       </c>
       <c r="J2" s="40">
         <f>Data!F33</f>
-        <v>7.7815516718443237E-2</v>
+        <v>5.3570816333527622E-2</v>
       </c>
       <c r="K2" s="40">
         <f>Data!G33</f>
-        <v>7.4695255254706203E-2</v>
+        <v>5.4392049187817926E-2</v>
       </c>
       <c r="L2" s="40">
         <f>Data!H33</f>
-        <v>7.5736156554799469E-2</v>
+        <v>5.5150019081906601E-2</v>
       </c>
       <c r="M2" s="40">
         <f>Data!I33</f>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="40">
         <f>Data!J33</f>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="40">
         <f>Data!K33</f>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="40">
         <f>Data!L33</f>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="40">
         <f>Data!M33</f>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="40">
         <f>Data!N33</f>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="S2" s="40">
         <f>Data!O33</f>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="40">
         <f>Data!P33</f>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="40">
         <f>Data!Q33</f>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="40">
         <f>Data!R33</f>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="40">
         <f>Data!S33</f>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="40">
         <f>Data!T33</f>
